--- a/templates/tech_info_template.xlsx
+++ b/templates/tech_info_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECE5036-456D-4248-9BA9-C3E625E5DCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D98FC5-3F30-467F-A343-1C2B5B2AF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Рассрочка:</t>
   </si>
   <si>
-    <t>Заправшиваемые риски:</t>
-  </si>
-  <si>
     <t>Банк-кредитор:</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Наличие СМР</t>
+  </si>
+  <si>
+    <t>Запрашиваемые риски:</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,15 +1480,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,23 +1504,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,40 +1533,40 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1575,32 +1575,32 @@
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
